--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Patient receiving medical treatment in oncology.</t>
+    <t>Contains the patient's identity details needed to ensure that the prescription is properly taken into account.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -496,13 +496,16 @@
 </t>
   </si>
   <si>
-    <t>The patient's identifier</t>
+    <t>Permanent Patient Identifier</t>
   </si>
   <si>
     <t>An identifier for this patient.</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>IPP</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
@@ -2831,7 +2834,7 @@
         <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>93</v>
@@ -2917,22 +2920,22 @@
         <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>81</v>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2966,70 +2969,70 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3047,16 +3050,16 @@
         <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>81</v>
@@ -3067,10 +3070,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3093,19 +3096,19 @@
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3154,7 +3157,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3175,16 +3178,16 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>81</v>
@@ -3192,10 +3195,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3218,19 +3221,19 @@
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3279,7 +3282,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3300,16 +3303,16 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3317,10 +3320,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3346,16 +3349,16 @@
         <v>112</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3383,10 +3386,10 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3404,7 +3407,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3425,16 +3428,16 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>81</v>
@@ -3442,10 +3445,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3468,19 +3471,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3529,7 +3532,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3550,27 +3553,27 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3593,19 +3596,19 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3654,7 +3657,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3675,16 +3678,16 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>81</v>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3718,19 +3721,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3779,7 +3782,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3800,16 +3803,16 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
@@ -3817,10 +3820,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3843,17 +3846,17 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3878,13 +3881,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3902,7 +3905,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3923,16 +3926,16 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -3940,10 +3943,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3966,19 +3969,19 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4027,7 +4030,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4048,16 +4051,16 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -4065,10 +4068,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4091,19 +4094,19 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4152,7 +4155,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4173,16 +4176,16 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -4190,10 +4193,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4216,19 +4219,19 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4277,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4289,7 +4292,7 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4298,13 +4301,13 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>81</v>
@@ -4315,10 +4318,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4341,13 +4344,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4398,7 +4401,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4407,7 +4410,7 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>81</v>
@@ -4419,7 +4422,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4436,10 +4439,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4468,7 +4471,7 @@
         <v>141</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>143</v>
@@ -4521,7 +4524,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4542,7 +4545,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4559,14 +4562,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4588,10 +4591,10 @@
         <v>140</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>143</v>
@@ -4646,7 +4649,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4684,10 +4687,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4710,17 +4713,17 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4745,13 +4748,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4769,7 +4772,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4790,16 +4793,16 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>81</v>
@@ -4807,10 +4810,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4833,17 +4836,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4892,7 +4895,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4901,7 +4904,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -4913,16 +4916,16 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
@@ -4930,10 +4933,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4956,19 +4959,19 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5017,7 +5020,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5026,7 +5029,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5038,16 +5041,16 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -5055,10 +5058,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5081,17 +5084,17 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5140,7 +5143,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5149,7 +5152,7 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>104</v>
@@ -5161,16 +5164,16 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -5178,10 +5181,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5207,14 +5210,14 @@
         <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5242,10 +5245,10 @@
         <v>116</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5263,7 +5266,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5284,16 +5287,16 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5301,10 +5304,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5327,17 +5330,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5386,7 +5389,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5395,7 +5398,7 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
@@ -5407,16 +5410,16 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -5424,10 +5427,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5450,13 +5453,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5507,7 +5510,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5528,13 +5531,13 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5545,10 +5548,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5571,19 +5574,19 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5632,7 +5635,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5653,13 +5656,13 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5696,13 +5699,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5753,7 +5756,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5762,7 +5765,7 @@
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -5774,7 +5777,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5791,10 +5794,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5823,7 +5826,7 @@
         <v>141</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>143</v>
@@ -5876,7 +5879,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5897,7 +5900,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5914,14 +5917,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5943,10 +5946,10 @@
         <v>140</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>143</v>
@@ -6001,7 +6004,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6039,10 +6042,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6065,19 +6068,19 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6126,7 +6129,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>92</v>
@@ -6147,16 +6150,16 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6164,10 +6167,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6190,19 +6193,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6251,7 +6254,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6272,16 +6275,16 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6289,14 +6292,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6315,16 +6318,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6374,7 +6377,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6395,16 +6398,16 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>81</v>
@@ -6412,10 +6415,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6438,19 +6441,19 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6499,7 +6502,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6520,13 +6523,13 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>81</v>
@@ -6537,10 +6540,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6563,19 +6566,19 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6624,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6645,13 +6648,13 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>81</v>
@@ -6662,10 +6665,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6688,13 +6691,13 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6745,7 +6748,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6754,7 +6757,7 @@
         <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
@@ -6766,7 +6769,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6783,10 +6786,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6815,7 +6818,7 @@
         <v>141</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>143</v>
@@ -6868,7 +6871,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6889,7 +6892,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6906,14 +6909,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6935,10 +6938,10 @@
         <v>140</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>143</v>
@@ -6993,7 +6996,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7031,10 +7034,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7057,16 +7060,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7116,7 +7119,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>92</v>
@@ -7137,16 +7140,16 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7154,10 +7157,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7183,10 +7186,10 @@
         <v>112</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7216,10 +7219,10 @@
         <v>116</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7237,7 +7240,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>92</v>
@@ -7258,13 +7261,13 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>81</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T08:18:01+00:00</t>
+    <t>2024-05-23T12:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Contains the patient's identity details needed to ensure that the prescription is properly taken into account.</t>
+    <t>Contains the patient's identity details needed to ensure that the prescription is properly taken into account. 
+Contient les informations d’identité du patient nécessaires à la bonne prise en compte de la prescription médicamenteuse.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -277,9 +278,6 @@
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>PATIENT</t>
   </si>
   <si>
     <t>administrative.individual</t>
@@ -1813,19 +1811,19 @@
         <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>81</v>
@@ -1836,10 +1834,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1850,28 +1848,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1921,13 +1919,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -1959,10 +1957,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1973,25 +1971,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2042,19 +2040,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2080,10 +2078,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2094,28 +2092,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2165,19 +2163,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2203,10 +2201,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2217,7 +2215,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2229,16 +2227,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2264,43 +2262,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2326,21 +2324,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2352,16 +2350,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2411,28 +2409,28 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="s" s="2">
+      <c r="AJ7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2449,14 +2447,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2475,16 +2473,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2534,7 +2532,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2543,19 +2541,19 @@
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2572,14 +2570,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2598,16 +2596,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2657,7 +2655,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2669,7 +2667,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2678,7 +2676,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2695,14 +2693,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2715,25 +2713,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2782,7 +2780,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2794,7 +2792,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2803,7 +2801,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -2820,10 +2818,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2831,32 +2829,32 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="I11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2905,7 +2903,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2917,25 +2915,25 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>81</v>
@@ -2943,10 +2941,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2957,109 +2955,109 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O12" t="s" s="2">
+      <c r="P12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q12" t="s" s="2">
+      <c r="R12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>81</v>
@@ -3070,10 +3068,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3093,22 +3091,22 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3157,7 +3155,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3169,7 +3167,7 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3178,16 +3176,16 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AO13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>81</v>
@@ -3195,10 +3193,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3218,22 +3216,22 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3282,7 +3280,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3294,7 +3292,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3303,16 +3301,16 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3320,10 +3318,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3334,31 +3332,31 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3383,61 +3381,61 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>81</v>
@@ -3445,10 +3443,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3459,31 +3457,31 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3532,19 +3530,19 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3553,27 +3551,27 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AP16" t="s" s="2">
+      <c r="AQ16" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3584,31 +3582,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3657,19 +3655,19 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3678,16 +3676,16 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>81</v>
@@ -3695,10 +3693,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3718,22 +3716,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3782,7 +3780,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3794,7 +3792,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -3803,16 +3801,16 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
@@ -3820,10 +3818,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3834,7 +3832,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -3846,17 +3844,17 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3881,61 +3879,61 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -3943,10 +3941,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3957,7 +3955,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3969,19 +3967,19 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4030,19 +4028,19 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4051,16 +4049,16 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -4068,10 +4066,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4094,19 +4092,19 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4155,7 +4153,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4167,7 +4165,7 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
@@ -4176,16 +4174,16 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -4193,10 +4191,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4219,19 +4217,19 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4280,7 +4278,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4292,22 +4290,22 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>81</v>
@@ -4318,10 +4316,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4332,7 +4330,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4344,13 +4342,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4401,17 +4399,17 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AJ23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4422,7 +4420,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4439,14 +4437,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4465,16 +4463,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4524,7 +4522,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4536,7 +4534,7 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4545,7 +4543,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4562,14 +4560,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4582,25 +4580,25 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4649,7 +4647,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4661,7 +4659,7 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4670,7 +4668,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4687,10 +4685,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4713,17 +4711,17 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4748,14 +4746,14 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4772,7 +4770,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4784,7 +4782,7 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -4793,16 +4791,16 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>81</v>
@@ -4810,10 +4808,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4824,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4836,17 +4834,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4895,37 +4893,37 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
@@ -4933,10 +4931,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4959,19 +4957,19 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="O28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5020,7 +5018,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5029,10 +5027,10 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5041,16 +5039,16 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -5058,10 +5056,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5072,7 +5070,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5084,17 +5082,17 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5143,19 +5141,19 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5164,16 +5162,16 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -5181,10 +5179,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5195,7 +5193,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5207,17 +5205,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5242,61 +5240,61 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5304,10 +5302,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5318,7 +5316,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5330,17 +5328,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5389,19 +5387,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5410,16 +5408,16 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -5427,10 +5425,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5441,7 +5439,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5453,13 +5451,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5510,19 +5508,19 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5531,13 +5529,13 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5548,10 +5546,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5574,19 +5572,19 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5635,7 +5633,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5647,7 +5645,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5656,13 +5654,13 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -5673,10 +5671,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5687,7 +5685,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5699,13 +5697,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5756,17 +5754,17 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5777,7 +5775,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5794,14 +5792,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5820,16 +5818,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5879,7 +5877,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5891,7 +5889,7 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -5900,7 +5898,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5917,14 +5915,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5937,25 +5935,25 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6004,7 +6002,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6016,7 +6014,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6025,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6042,10 +6040,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6053,10 +6051,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6068,19 +6066,19 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6105,14 +6103,14 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6129,19 +6127,19 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6150,16 +6148,16 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6167,10 +6165,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6181,7 +6179,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6193,19 +6191,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6254,19 +6252,19 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
@@ -6275,16 +6273,16 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6292,14 +6290,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6318,16 +6316,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6377,7 +6375,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6389,7 +6387,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6398,16 +6396,16 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>81</v>
@@ -6415,10 +6413,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6429,31 +6427,31 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6502,19 +6500,19 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6523,13 +6521,13 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>81</v>
@@ -6540,10 +6538,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6560,25 +6558,25 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6627,7 +6625,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6639,7 +6637,7 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6648,13 +6646,13 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>81</v>
@@ -6665,10 +6663,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6679,7 +6677,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6691,13 +6689,13 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6748,17 +6746,17 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI42" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6769,7 +6767,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6786,14 +6784,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6812,16 +6810,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6871,7 +6869,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6883,7 +6881,7 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -6892,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6909,14 +6907,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6929,25 +6927,25 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6996,7 +6994,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7008,7 +7006,7 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -7017,7 +7015,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7034,10 +7032,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7045,31 +7043,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7119,19 +7117,19 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7140,16 +7138,16 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7157,10 +7155,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7168,28 +7166,28 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7216,58 +7214,58 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>81</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -494,31 +494,236 @@
 </t>
   </si>
   <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>IPP</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Participant.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Permanent Patient Identifier</t>
   </si>
   <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t>IPP</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Participant.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>PID-3</t>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -555,9 +760,6 @@
     <t>Participant.active</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.name</t>
   </si>
   <si>
@@ -746,10 +948,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -757,9 +955,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -862,30 +1057,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -993,10 +1165,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -1013,10 +1181,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1527,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ46"/>
+  <dimension ref="A1:AQ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1555,7 +1719,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1564,7 +1728,7 @@
     <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2961,76 +3125,70 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3039,25 +3197,25 @@
         <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>81</v>
@@ -3068,14 +3226,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3091,23 +3249,21 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3143,16 +3299,16 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>172</v>
@@ -3167,7 +3323,7 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3176,16 +3332,16 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>81</v>
@@ -3193,10 +3349,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3207,31 +3363,31 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3256,13 +3412,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3280,13 +3436,13 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3301,16 +3457,16 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3318,10 +3474,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3344,19 +3500,19 @@
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3381,13 +3537,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3405,7 +3561,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3426,16 +3582,16 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>81</v>
@@ -3443,10 +3599,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3469,19 +3625,19 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3494,7 +3650,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3530,7 +3686,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3551,27 +3707,27 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3588,26 +3744,24 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3619,7 +3773,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3655,7 +3809,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3664,7 +3818,7 @@
         <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>103</v>
@@ -3676,16 +3830,16 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>81</v>
@@ -3693,10 +3847,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3707,7 +3861,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3719,20 +3873,16 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3780,13 +3930,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -3801,16 +3951,16 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
@@ -3818,10 +3968,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3841,21 +3991,21 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -3879,13 +4029,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3903,7 +4053,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3924,16 +4074,16 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -3941,10 +4091,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3961,30 +4111,32 @@
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4028,7 +4180,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4046,19 +4198,19 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -4066,10 +4218,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4089,22 +4241,22 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4153,7 +4305,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4174,16 +4326,16 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -4191,10 +4343,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4214,22 +4366,22 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4278,7 +4430,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4290,7 +4442,7 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4299,16 +4451,16 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>81</v>
@@ -4316,10 +4468,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4339,19 +4491,23 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4375,13 +4531,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4399,7 +4555,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4408,10 +4564,10 @@
         <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4420,16 +4576,16 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>81</v>
@@ -4437,21 +4593,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4460,21 +4616,23 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4522,59 +4680,59 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP24" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4586,19 +4744,19 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4647,19 +4805,19 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4668,16 +4826,16 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>81</v>
@@ -4685,10 +4843,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4708,20 +4866,22 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4746,31 +4906,31 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4791,16 +4951,16 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>81</v>
@@ -4808,10 +4968,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4834,17 +4994,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4869,13 +5029,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4893,7 +5053,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4902,7 +5062,7 @@
         <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>103</v>
@@ -4914,16 +5074,16 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
@@ -4931,10 +5091,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4945,7 +5105,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4957,19 +5117,19 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5018,16 +5178,16 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>103</v>
@@ -5039,16 +5199,16 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -5056,10 +5216,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5070,7 +5230,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5082,17 +5242,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5141,16 +5303,16 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>103</v>
@@ -5162,16 +5324,16 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -5179,10 +5341,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5193,7 +5355,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5205,17 +5367,19 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5240,13 +5404,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5264,19 +5428,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5285,16 +5449,16 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5302,10 +5466,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5328,18 +5492,16 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5387,7 +5549,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5396,10 +5558,10 @@
         <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5408,16 +5570,16 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -5425,21 +5587,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5451,15 +5613,17 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5508,19 +5672,19 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5529,13 +5693,13 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5546,14 +5710,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5566,25 +5730,25 @@
         <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5633,7 +5797,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5645,7 +5809,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5654,13 +5818,13 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -5671,10 +5835,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5685,7 +5849,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5697,16 +5861,18 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5730,13 +5896,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5754,19 +5920,19 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
@@ -5775,16 +5941,16 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>81</v>
@@ -5792,21 +5958,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5818,18 +5984,18 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>140</v>
+        <v>347</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5877,19 +6043,19 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -5898,16 +6064,16 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>81</v>
@@ -5915,14 +6081,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5935,25 +6101,25 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>142</v>
+        <v>355</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6002,7 +6168,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6011,10 +6177,10 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6023,16 +6189,16 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>81</v>
@@ -6040,10 +6206,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6051,7 +6217,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6066,19 +6232,17 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6103,13 +6267,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6127,16 +6291,16 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6148,16 +6312,16 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>339</v>
+        <v>166</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6165,10 +6329,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6191,19 +6355,17 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6228,13 +6390,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6252,7 +6414,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6273,16 +6435,16 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6290,21 +6452,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6316,18 +6478,18 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6375,16 +6537,16 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>103</v>
@@ -6396,16 +6558,16 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>81</v>
@@ -6413,10 +6575,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6436,23 +6598,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6500,7 +6658,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6521,13 +6679,13 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>362</v>
+        <v>166</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>81</v>
@@ -6538,10 +6696,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6558,25 +6716,25 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6625,7 +6783,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6646,13 +6804,13 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>81</v>
@@ -6663,10 +6821,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6689,13 +6847,13 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6746,7 +6904,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6755,7 +6913,7 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
@@ -6767,7 +6925,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6784,10 +6942,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6816,7 +6974,7 @@
         <v>140</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>142</v>
@@ -6869,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6890,7 +7048,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6907,14 +7065,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6936,10 +7094,10 @@
         <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>142</v>
@@ -6994,7 +7152,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7032,10 +7190,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7055,21 +7213,23 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7093,13 +7253,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7117,7 +7277,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>91</v>
@@ -7138,16 +7298,16 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>157</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7155,10 +7315,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7166,7 +7326,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7178,19 +7338,23 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7214,13 +7378,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7238,10 +7402,10 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>91</v>
@@ -7259,23 +7423,1009 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>171</v>
+        <v>401</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AQ46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ46">
+  <autoFilter ref="A1:AQ54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7285,7 +8435,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T15:16:11+00:00</t>
+    <t>2024-07-01T07:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -261,9 +267,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1528,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1628,21 +1631,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1682,6 +1685,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1746,6682 +1757,6682 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
